--- a/z_RequestData/jobsearch_data104.xlsx
+++ b/z_RequestData/jobsearch_data104.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2871,10 +2871,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A46" t="n">
+        <v>20260209</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2928,10 +2926,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A47" t="n">
+        <v>20260210</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2984,10 +2980,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20260123</t>
-        </is>
+      <c r="A48" t="n">
+        <v>20260123</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3039,10 +3033,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A49" t="n">
+        <v>20260204</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3092,10 +3084,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>20260115</t>
-        </is>
+      <c r="A50" t="n">
+        <v>20260115</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3147,10 +3137,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A51" t="n">
+        <v>20260206</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3202,10 +3190,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A52" t="n">
+        <v>20260206</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3258,10 +3244,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A53" t="n">
+        <v>20260204</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3314,10 +3298,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>20260126</t>
-        </is>
+      <c r="A54" t="n">
+        <v>20260126</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3368,10 +3350,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>20260123</t>
-        </is>
+      <c r="A55" t="n">
+        <v>20260123</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3427,10 +3407,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A56" t="n">
+        <v>20260206</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3487,10 +3465,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A57" t="n">
+        <v>20260205</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3544,10 +3520,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A58" t="n">
+        <v>20260209</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3598,10 +3572,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A59" t="n">
+        <v>20260206</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3653,10 +3625,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A60" t="n">
+        <v>20260205</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3707,10 +3677,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>20260203</t>
-        </is>
+      <c r="A61" t="n">
+        <v>20260203</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3761,10 +3729,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A62" t="n">
+        <v>20260210</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3818,10 +3784,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A63" t="n">
+        <v>20260205</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3873,10 +3837,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>20260202</t>
-        </is>
+      <c r="A64" t="n">
+        <v>20260202</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3928,10 +3890,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A65" t="n">
+        <v>20260204</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3980,10 +3940,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A66" t="n">
+        <v>20260209</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4035,10 +3993,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
+      <c r="A67" t="n">
+        <v>20260120</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4094,10 +4050,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A68" t="n">
+        <v>20260210</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4149,10 +4103,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A69" t="n">
+        <v>20260206</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4207,10 +4159,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>20260203</t>
-        </is>
+      <c r="A70" t="n">
+        <v>20260203</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4265,10 +4215,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A71" t="n">
+        <v>20260204</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4321,10 +4269,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>20251224</t>
-        </is>
+      <c r="A72" t="n">
+        <v>20251224</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4376,10 +4322,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>20251228</t>
-        </is>
+      <c r="A73" t="n">
+        <v>20251228</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4431,10 +4375,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A74" t="n">
+        <v>20260209</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4488,10 +4430,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A75" t="n">
+        <v>20260209</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4544,10 +4484,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A76" t="n">
+        <v>20260205</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4601,10 +4539,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A77" t="n">
+        <v>20260206</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4656,10 +4592,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A78" t="n">
+        <v>20260206</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4711,10 +4645,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A79" t="n">
+        <v>20260204</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4770,10 +4702,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>20260126</t>
-        </is>
+      <c r="A80" t="n">
+        <v>20260126</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4824,10 +4754,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>20260123</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20260123</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4881,10 +4809,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>20260126</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20260126</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4936,10 +4862,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20260210</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4992,10 +4916,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20260204</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5045,10 +4967,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>20260202</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20260202</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5100,10 +5020,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20260204</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5157,10 +5075,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20260209</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5211,10 +5127,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>20260129</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20260129</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5265,10 +5179,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20260204</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5320,10 +5232,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20260209</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5378,10 +5288,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20260204</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5434,10 +5342,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>20260131</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20260131</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5506,10 +5412,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>20260126</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20260126</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5561,10 +5465,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20260120</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5617,10 +5519,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20260204</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5674,10 +5574,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20260205</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5729,10 +5627,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20260205</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5783,10 +5679,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20260206</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5839,10 +5733,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20260204</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5906,10 +5798,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20260204</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5961,10 +5851,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20260206</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6018,10 +5906,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20260203</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20260203</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6071,10 +5957,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20260206</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6126,10 +6010,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>20260123</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20260123</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6181,10 +6063,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>20260202</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20260202</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6238,10 +6118,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>20260117</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20260117</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6291,10 +6169,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20260204</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -6363,10 +6239,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20260210</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -6418,10 +6292,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20260209</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6474,10 +6346,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20260204</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6527,10 +6397,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20260210</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6584,10 +6452,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20260205</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6640,10 +6506,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20260209</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6696,10 +6560,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>20251124</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20251124</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6749,10 +6611,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>20260203</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20260203</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6805,10 +6665,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>20260101</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20260101</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6858,10 +6716,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>20251124</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20251124</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6911,10 +6767,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20260209</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6968,10 +6822,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20260210</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7024,10 +6876,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A120" t="n">
+        <v>20260209</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7082,10 +6932,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>20260108</t>
-        </is>
+      <c r="A121" t="n">
+        <v>20260108</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -7139,10 +6987,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>20260203</t>
-        </is>
+      <c r="A122" t="n">
+        <v>20260203</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -7194,10 +7040,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>20260130</t>
-        </is>
+      <c r="A123" t="n">
+        <v>20260130</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -7251,10 +7095,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>20260126</t>
-        </is>
+      <c r="A124" t="n">
+        <v>20260126</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -7303,10 +7145,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>20260123</t>
-        </is>
+      <c r="A125" t="n">
+        <v>20260123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -7360,10 +7200,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A126" t="n">
+        <v>20260210</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -7416,10 +7254,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A127" t="n">
+        <v>20260204</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -7475,10 +7311,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A128" t="n">
+        <v>20260210</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -7528,10 +7362,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A129" t="n">
+        <v>20260210</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -7584,10 +7416,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>20260130</t>
-        </is>
+      <c r="A130" t="n">
+        <v>20260130</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -7640,10 +7470,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A131" t="n">
+        <v>20260209</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -7694,10 +7522,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>20260202</t>
-        </is>
+      <c r="A132" t="n">
+        <v>20260202</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -7749,10 +7575,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>20260101</t>
-        </is>
+      <c r="A133" t="n">
+        <v>20260101</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -7802,10 +7626,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A134" t="n">
+        <v>20260210</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7860,10 +7682,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>20260203</t>
-        </is>
+      <c r="A135" t="n">
+        <v>20260203</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7918,10 +7738,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A136" t="n">
+        <v>20260205</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7974,10 +7792,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A137" t="n">
+        <v>20260206</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -8032,10 +7848,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A138" t="n">
+        <v>20260204</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8090,10 +7904,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A139" t="n">
+        <v>20260210</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -8143,10 +7955,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>20250717</t>
-        </is>
+      <c r="A140" t="n">
+        <v>20250717</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -8198,10 +8008,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>20260203</t>
-        </is>
+      <c r="A141" t="n">
+        <v>20260203</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -8252,10 +8060,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A142" t="n">
+        <v>20260205</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -8306,10 +8112,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A143" t="n">
+        <v>20260209</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -8360,10 +8164,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A144" t="n">
+        <v>20260206</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -8414,10 +8216,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>20260206</t>
-        </is>
+      <c r="A145" t="n">
+        <v>20260206</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -8485,10 +8285,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
+      <c r="A146" t="n">
+        <v>20260120</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -8542,10 +8340,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A147" t="n">
+        <v>20260204</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -8597,10 +8393,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A148" t="n">
+        <v>20260210</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -8653,10 +8447,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A149" t="n">
+        <v>20260210</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -8711,10 +8503,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>20260123</t>
-        </is>
+      <c r="A150" t="n">
+        <v>20260123</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -8767,10 +8557,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>20260210</t>
-        </is>
+      <c r="A151" t="n">
+        <v>20260210</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -8825,10 +8613,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>20260205</t>
-        </is>
+      <c r="A152" t="n">
+        <v>20260205</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -8879,10 +8665,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>20260204</t>
-        </is>
+      <c r="A153" t="n">
+        <v>20260204</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -8933,10 +8717,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>20260209</t>
-        </is>
+      <c r="A154" t="n">
+        <v>20260209</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -8988,10 +8770,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>20260125</t>
-        </is>
+      <c r="A155" t="n">
+        <v>20260125</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -9038,6 +8818,6161 @@
       <c r="J155" t="inlineStr">
         <is>
           <t>https://www.104.com.tw/job/8e7ue</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ERP軟體工程師</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>九暘電子股份有限公司</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>IC設計相關業</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>新竹市 光復路二段2巷47號10樓之1</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1. 負責ERP系統運作
+2. 協助 SAP、ERP系統導入
+3. 主管交辦事項</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8yci1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>20260205</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>品保人員</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>久誼股份有限公司</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>加工紙製造業</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>台中市外埔區 長生路806號</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>月薪 32,000 ~ 33,500元</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>高中職、專科、大學</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1. 協助進行進出貨、製程及成品的品質檢測，並記錄測試結果
+2. 協助監控與提升產品品質，確保穩定性與一致性
+3. 執行製程與產品的抽檢與驗收，確保符合標準
+4. 分析檢驗數據，協助提出品質優化建議
+5. 整理並歸檔產品歷史記錄，維持資料完整與可</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/4fjko</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20260115</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>【Data Engineer】資料工程師</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>艾米茲科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>台北市中正區 南海路1號13樓</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>【主要工作內容】
+✹ 多來源資料收集、爬蟲開發、API 串接與網站 / 文件資料萃取。
+✹ 建置資料清洗、欄位對照、Normalization、重複 / 缺漏值處理與品質檢核流程。
+✹ 建立與維運資料 Pipeline（爬取 → 儲存 → 清理</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wmjg</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>資料工程師 Data Engineer (AI &amp; Application)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>群越廣告科技有限公司</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市南港區 </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>月薪 70,000 ~ 100,000元</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>職稱： 資料工程師 Data Engineer (AI &amp; Application)
+我們尋找一位資料敏銳度高、擁有穩健工程實作力的資料工程師，加入我們的遊戲平台廣告競標系統！ 這個職位非常適合熟悉資料處理流程、具備 API 設計與雲端部署經驗</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xjj4</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Data Engineer 資料工程師 (桃園龜山近林口長庚)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Gogoro Taiwan Limited_睿能創意股份有限公司</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>機車及其零件製造業</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>桃園市龜山區 頂湖路33號 (近林口長庚)</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>職務影響力
+本職位以資料工程與分析平台建設為核心，負責打造穩定、可擴展且可維運的工程數據基礎設施，作為工程與研發團隊進行數據決策的關鍵支撐。透過提升資料管道品質、系統自動化與整體擴展性，使資料分析工程師與工程團隊能在一致且可信的數據基礎上，規模化</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wzpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>20260126</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Data Engineer/ 資料工程師</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>文境資科股份有限公司</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>專門設計相關業</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市大安區 </t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Data Engineer/ 資料工程師
+1.資料稽核(Data Auditing)、收集(Data Collection)、整合作業(Data Integration) 等資料分析前處理作業
+2.有MS SQL server、SSIS、SSRS</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7g1tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>資料數據工程師</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天晴資訊有限公司</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>其它軟體及網路相關業</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市內湖區 </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>高中職、專科、大學</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1. 兩年以上IT維運、系統管理或工程IT支援經驗。
+2. 精通Windows和/或Linux伺服器環境。
+3. 熟悉虛擬化（例如VMware）、網路基礎知識和備份系統。
+4. 具備良好的分析和故障排除能力，尤其是在技術設計環境中。
+5. 具備有</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8vpmu</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>旺旺中時媒體集團_(CT) Data Engineer（資料工程師）</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>旺旺中時媒體集團_工商財經數位股份有限公司</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>電視業</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>台北市萬華區 艋舺大道303號</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>本職位為Data Engineer（資料工程師）
+（依資歷可掛 Senior Data Engineer）
+工作內容 :
+● 設計與實作跨平台資料收集流程（API 與後台匯出並行）
+● 串接並維運以下類型資料來源（依實際情況）：
+YouTube</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wttd</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中國信託證券投資信託股份有限公司</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>台北市南港區 經貿二路188號12樓</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>【職務主要內容】
+1. 建立開發標準與規範：制定資料交換標準、建立開發 SOP。
+2. 資料管道與系統串接(ETL/Integration)：協助系統間的資料串接與整合、優化舊有系統的 ETL 流程。
+3. 數據品質與監控：建立預警機制，確保資料</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8n6z2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>資料工程師 Data Engineer_汐止</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>緯謙科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>新北市汐止區 新台五路一段88號</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>針對內部的資料平台，透過Azure雲端與地端環境方案，撰寫Python、SQL、Scala、R語言，進行資料的處理與開發
+工作內容包含: 
+1. 資料需求釐清: 根據內部需求進行相關資料的了解、協助釐清資料需求、盤點建立metadata、與最終的</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8e1a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>20260202</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>資料工程師/後端工程師 (Data Engineer / Backend Engineer)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>典通股份有限公司</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>工商顧問服務業</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>台北市中正區 愛國西路9號7樓</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>與管理，包括機器環境設定及基礎架構設計（Infrastructure）。
+4. 整合數據管道和資料流處理流程，支持數據分析需求及前端服務。
+5. 與數據分析師、前端工程師及其他業務部門緊密協作，理解並滿足多樣化的數據需求。
+您可以透過以下聯結認識</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8jvge</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Regional Data Engineer 數據工程師(台北工作)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>香港商麥迪康亞太有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>醫療器材製造業</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>台北市信義區 基隆路1段163號4樓之3(市府站1號出口)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1.設計、開發和維護可擴展的數據管道和ETL流程。
+2.與數據科學家、分析師和利益相關者合作，了解數據需求並提供解決方案。
+3.優化和改進現有數據系統，以提高性能和可靠性。
+4.實施數據質量檢查，確保各類數據源的數據完整性。
+5.開發和維護數據工程</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8m4mk</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>承映資訊網路有限公司</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>桃園市蘆竹區 南崁路一段99號2F</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>月薪 30,000 ~ 40,000元</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>高中職、專科、大學</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>【工作內容】
+1.文件撰寫與修改
+2.系統測試與維運，確保系統穩定運作
+3.資料流程與架構的建立、優化及改善
+4.依專長調整工作內容
+5.依專長安排工作項目
+【人格特質】
+1.態度認真、負責、細心、耐心、積極、正向，能長時間面對電腦
+2.配合主</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8u58q</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>20260120</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>資料工程師 Data Engineer</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>果實夥伴股份有限公司</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>台北市內湖區 瑞光路610號2樓</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>【工作內容 】
+-  ETL 之開發、處理(資料清理、儲存、分析)與監測
+- 開發與設計專案所需 API 服務並與後端工程師合作，完成系統產品化程序
+- 依據不同業務需求，完成建置/維運/更新各式 Data infra 的需求
+- 與數據產品管理</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7dpwf</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>20260126</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>關貿網路股份有限公司</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>台北市南港區 三重路19之13號6樓(115)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>1.大數據應用系統開發維護及專案支援。
+2.數據處理及ETL架構規劃及開發。
+3.熟悉java，會Python/R或撰寫分析演算法程式尤佳。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/4ftgq</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>20260123</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>資料科學工程師 (Data Engineer) -- 資料科學實驗室 (數數發中心,DDT)_I00018190</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>國泰金控_國泰金融控股股份有限公司</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>金融控股業</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市信義區 </t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[工作內容]
+職務包含但不限於以下內容
+- 基於 Python 語言之產品開發，推廣及後續維護
+- Docker/Kubernetes 相關技術應用研發
+- 雲端技術應用及研究
+- 創新資料科學工程架構研究及開發
+- 大數據專案開發實作
+</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8hztb</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>數據工程師 data engineer</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>台灣創博識有限公司</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>台北市中正區 南海路1號13樓</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>data governance, data quality, MLOps
+4. 優化開發者體驗，解決資料科學家開發與部署會遇到的問題
+資料工程師在數位轉型的浪潮下扮演重要的角色，本職位將有機會參與公司數位轉型計畫，並協助建立可靠的數據基礎架構，提供客</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wl9k</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>艾捷科技有限公司</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>台中市南屯區 大墩十街300號</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>月薪 40,000 ~ 60,000元</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Data 團隊正在尋找一位充滿熱忱的【資料工程師】加入我們！
+熟悉 Data Warehouse、大數據、雲端 (GCP/AWS) 和 CICD
+歡迎加入我們，一起打造高效穩健的數據基石
+【日常工作內容】
+1.開發數據流、報表結轉程式
+2.發</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/88w4t</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>資料分析工程師</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>侍達遊戲藝術有限公司</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>其它軟體及網路相關業</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>台北市信義區 東興路41號5樓</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>1. 根據分析需求進行資料建模，並提供視覺化的資料呈現。
+2. 提供分析數據及報表。
+3. 設計與開發資料分析所需要的工具。
+[能力需求]
+1. 具備程式開發經驗 (Python/Golang等)。
+2. 具備 SQL/NoSQL 使用經驗</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/85yiu</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>資料工程師 (BI)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>聯合通商電子商務股份有限公司</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>台北市中山區 南京東路二段69號8樓</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>(本職務主要為技術工作而非單純的數據分析)
+1.  商業智慧(BI)專案需求訪談、系統分析並製作系統需求規格書文件
+2.  撰寫整合測試計畫書、測試案例、準備測試資料及測試
+3.  Metadata 中介層設計、Dashboard、Report設</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/37tef</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>悠遊卡股份有限公司</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>其他金融及輔助業</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>台北市南港區 園區街3之1號13樓</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>1.需求釐清: 依內部需求進行資料模型分析，如資料表增減、欄位增減、規則轉換、調整分析結果，並產出分析文件
+2.設定規則: 依分析文件撰寫SQL語法及ETL設定處理，並進行資料驗證
+3.平台維運: 日常監控及定期檢查
+4.平台串接: 平台與應用系</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ikwv</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>大江生醫股份有限公司(TCI CO., Ltd)</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>生化科技研發業</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>屏東縣長治鄉 神農路12號</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lake。
+．   與資料科學團隊合作，提供模型所需的資料集與特徵工程支援（如 LightGBM、XGBoost）。
+．   透過Power BI進行資料串接與報表資料結構設計，確保分析資料即時、準確。
+．   撰寫技術文件，維護資料流程運作紀錄</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/69p6c</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>(GA)程式設計高級工程師(數據分析)(土城)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>正崴精密工業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>其他電子零組件相關業</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>新北市土城區 中山路18號</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>1.負責協助規劃、開發與維護公司經營管理相關的數據分析與決策所需之報表及洞察
+2.使用 Tableau 建置視覺化儀表板（Dashboard）及各式分析報表
+3.撰寫並優化 Oracle SQL 查詢語句，進行資料清理、ETL 與資料整合
+4.參</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8rsr3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>雲端 / 維運工程師</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>聚贏有限公司</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>台北市中正區 新生南路1段158號</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>月薪 40,000 ~ 100,000元</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>我們是一支結合 【創意與數據】 的跨域團隊，
+專注於 SEO、網站行銷策略、文案企劃與網站分析，並結合軟體工程專業，
+為客戶提供量身打造的行銷與技術整合服務。
+在開放、扁平、友善的文化中，我們重視專業與品質，也相信數據與創意能改變未來，
+誠摯邀</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8flaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>【外商】[FIN] Sr. Data Engineer／資深數據工程師</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>烽泰科技有限公司</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>其他金融及輔助業</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>台北市中正區 杭州北路26號20樓 (新光華山金融中心)</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>年薪 1,200,000 ~ 1,400,000元</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pipeline (資料流) 的設計、搭建與優化能力，熟悉 Dagster 或 Airflow 等排程工具。
+• 5 年以上資深資料工程師或相關經驗，並具備獨立主導專案的能力。
+• 卓越的需求訪談與業務邏輯理解能力，能將複雜的技術概念清晰地傳達給非技術背</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8dq30</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>資料工程師(竹科)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>前進國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新竹市 </t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>ETL Job Migration</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8x2u8</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>20260120</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>數據工程師/Data Engineer</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>大數據股份有限公司</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>其它軟體及網路相關業</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>台北市中山區 民生東路三段3號7樓</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> API開發與維護
+6.依能力調整Job Title(資深數據工程師/數據工程師)
+【必要技能】 
+1.熟練運用AI工具進行開發上的協作
+2.熟悉Python語法
+3.充分了解HTML結構，能解析網頁交換資料的順序步驟　 
+4.熟悉Git
+5.熟悉</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/5o7vg</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>資料工程師 (Data Engineer)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>替您錄科技股份有限公司(TGC Taiwan, Inc.)</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>多媒體傳播相關業</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>台北市松山區 八德路四段760號6樓</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>月薪 55,000 ~ 75,000元</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>我們正在尋找一位熱情且富有才華的資料工程師，加入我們的團隊，協助解決廣告投遞的資料內容。在這裡有大量的數據供你發揮所長，將學過的知識及方法應用到實務的工作上。
+我們希望你具備以下三大特質：
+對資料工程領域有強烈興趣和熱情 。
+重視團隊合作，具備</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ekil</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>【派遣至知名外商銀行|6個月短期專案】Data Engineer資料工程師_201C</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>萬寶華企業管理顧問股份有限公司</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>人力仲介代徵</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>台北市松山區 敦化北路</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>月薪 65,000 ~ 65,000元</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>學以上學歷
+-1年以上資料分析/資料工程/資料清洗相關經驗
+-必備中階 SQL技能(Python為加分項)
+【加分條件】
+-熟悉財務資料或報表流程
+-具備大數據平台(Hive、Hadoop)經驗者佳
+-有金融業相關經驗佳</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8x37g</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>徵  數位創發中心-專任職員2名(Power BI 資料分析工程師)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>臺北醫學大學</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>大專校院教育事業</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>新北市中和區 圓通路301號</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>【工作內容】
+(1)負責 Power BI 報表之設計、開發與維運，將複雜資料轉化為具洞察力的視覺化分析。
+(2)進行資料庫資料擷取、清理與整合（Oracle、MS SQL 或其他關聯式資料庫）。
+(3)撰寫與優化 SQL 查詢，建立可重複使用之</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xi1f</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Data Engineer / 資深資料工程師(Python)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>宇利峯有限公司</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>台中市西屯區 市政路386號</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>職位概要:
+我們正在尋找一位專精於資料整理和Python開發的Python資料工程師，主要負責資料的清洗、標準化和品質控制工作。
+1. 數據清洗和標準化:
+- 處理原始資料，識別和處理異常值。
+- 統一資料格式和編碼標準。
+- 補齊缺失值和修正</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8d4ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>英屬維京群島商嘉碼科技有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>台中市西屯區 工業三十八路210號3樓之6</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>我們正在尋找一位數據工程師，不僅具備扎實的技術底子，更擁有主動積極、樂於挑戰的特質。
+加入我們後，您將在這個充滿活力、尊重多元的環境中扮演關鍵角色，透過打造穩健的數據基礎與管道，協助團隊從資料中萃取價值、加速產品與業務的創新。
+如果您對資料領域充</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8vvrv</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>產品三部 | 資料工程師(高雄)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>騰雲科技服務股份有限公司</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>高雄市苓雅區 中華四路45號2樓</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>✅ 工作內容｜你會負責的任務
+1.數據建模：負責設計與維護 MDP 平台的資料模型，確保能有效支撐財務、銷售、行為等多維度主題數據。
+2.ETL 流程開發：配合使用 ETL 工具，撰寫高效能的 T-SQL 邏輯進行數據清洗、轉換與載入。
+3.效能</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xvzb</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>竹北分公司-製造技術處/文件支援組-資料工程師</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>台康生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>生化科技研發業</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>新竹縣竹北市 生醫路一段168號</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>作
+與製程工程師、設備工程師合作，推動資料驅動決策。
+★加分項目
+熟悉 Data Historian 系統。
+有 Power BI 或其他視覺化平台經驗。
+了解 ERP 資料（交易、製程履歷）。
+具備撰寫技術文件與知識管理經驗。</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8w316</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>20260203</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>聯想感行銷科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>台北市松山區 民生東路三段135號3樓</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>月薪 60,000 ~ 90,000元</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>高中職、專科、大學、碩士</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>【工作內容】
+與團隊協作，共同完成各客戶的資料流開發，同時協助團隊梳理與排除運作中的 data pipeline 產生的各種突發程式狀況，並完成記錄與建檔，您應可獨立開發系統串接、大資料清整。在工作過程中，您會與工程團隊、設計團隊、產品團隊溝通協</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8t66i</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>20251228</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>量測/資料工程師(竹北)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>艾思特能源股份有限公司</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>精密儀器相關製造業</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新竹縣竹北市 </t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>月薪 45,000 ~ 55,000元</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>1. 協助執行太陽能電站之現場檢測與量測作業
+2. 蒐集並整理現場檢測資料，撰寫相關測試與檢測紀錄
+3. 進行數據分析與報告撰寫，需熟悉 Word 文件排版 與 Excel 樞紐分析
+4. 協助撰寫及優化 檢測SOP 與 測試流程文件，建立</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8uri5</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>圖靈數位股份有限公司</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>其它軟體及網路相關業</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>台北市中正區 中山北路一段2號11樓</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>行銷判讀，運營，轉化方面的戰略支持與技術方法。成員大多是技術工程師組成，協助客戶收集有用的數據，了解數據，利用數據。
+目前是 Google Marketing Platform、Mixpanel、AB Tasty 認證合作夥伴。
+公司福利：
+・</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7v0e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ETL資料工程師(FJ)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>德義資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市松山區 </t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>．設計、開發與維護 ETL 流程，確保資料的正確性與一致性
+．使用 NiFi、SSIS 或其他 ETL 工具進行資料擷取、轉換與載入
+．優化現有流程效能，提升資料處理速度與可靠性
+．支援內部系統或跨團隊資料整合專案
+．撰寫並維護技術文件，確保流程</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8usc3</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>資料工程師  Data Engineer【數位數據發展本部】</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>東南旅行社股份有限公司</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>旅遊服務業</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>台北市中山區 中山北路二段60號</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>統性整合資料支撐分析與AI應用的發展
+●	建置優化Data Pipeline，並建立資料品質監控管理機制，確保資料品質和效率
+●	與DA / DS 協作，開發實作數據 / AI產品，參與模型的部署上線與維運
+●	協作工程師設計大規模資料遷移，參與</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8tbys</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>【國泰集團】資料科學工程師 (數據架構工程師) – (數數發中心, DDT)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>國泰世紀產物保險股份有限公司</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>產物保險業</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>台北市大安區 敦化南路二段39號</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>月薪 44,000元以上</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>【關於我們】
+我們是國泰產險的資料科學（DS）團隊，使命在於持續進化數據應用，創造並釋放數據價值。目前正在藉由數據上雲、數據治理與 AI 技術應用，推動由底層架構到業務應用的全端數據生態建構與 AI 轉型準備。
+我們尋找認同以下團隊文化的夥伴：</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8opms</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>製造資料科學工程師</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>紫式大數據決策股份有限公司</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>工商顧問服務業</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>新竹市 光復路二段376-1號2樓</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>【工作內容】
+1.	依據客戶端於製造資料科學需求（例如：製程參數優化、產品瑕疵檢測、設備預測保養）進行資料健檢、開發與導入符合需求的AI演算法，並以實際數據進行離線驗證。
+2.	與客戶端軟體團隊合作，將演算法封裝成API進行系統整合串接，並協</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ww7h</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>20260204</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>雲端數據工程師</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>君綺生醫股份有限公司</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>美容／美體業</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>台北市信義區 松智路1號</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>部門介紹:
+我們是集團組織擴編成立的新部門, 在這工作你將會體驗全雲的工作環境, 包含AWS雲端服務及工具, 在工作中學習專案管理、資料庫管理、雲端服務等技術
+工作內容
+1. 參與雲端數據架構發展規劃，設計資料處理、儲存、分析架構，以符合數據</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8mcsu</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>20260123</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>資深資料科學工程師 Sr. Data R&amp;D Engineer (Backend) - 台中 數據技術發展 (數數發中心, DDT)_I00020704</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>國泰金控_國泰金融控股股份有限公司</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>金融控股業</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>台中市烏日區 台中市烏日區高鐵一路299號</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>[工作內容]
+資深後端工程師職務可能包含但不限如下相關內容：
+- 開發與維護現有應用服務
+- 與前端人員合作設計 API 接口
+- 熟悉資料與 AI 模型應用服務開發，與資料科學家合作解決商業命題
+- 具有 Open Source 研究與使用經驗</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8n5io</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>115年-資料工程師(規劃師) - 總管理室／數據組</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>國家住宅及都市更新中心</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>不動產經營業</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>台北市中山區 民生東路一段21號</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>數據處理流程。
+5.處理資料清理與轉換（Data Cleaning &amp; Transformation），並與數據科學家及BI分析師合作，提供其高品質的數據供分析使用。</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8y4vs</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>20260204</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>【.NET 10 / C# 14】後端工程師 / 開發工程師</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>彌通數位有限公司</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>台中市西屯區 何厝里漢口路一段37號2樓</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NoSQL / MSSql 調優能力（處理系統 海量日誌與狀態資料）。
+- 具備微服務拆解與整合經驗。
+【加分項目 (Nice to have)】
+- 有開發過高併發系統、分散式架構的實戰經驗。
+- 懂一點前端 (Vue/React) 或 UI/</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8y4q0</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>業務工程師</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>維佳科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>光學器材製造業</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>台中市南區 文心南十路192號</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>月薪 40,000 ~ 80,000元</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>1. 定期拜訪公司目前現有客戶,維護既有客戶並積極開發新客戶
+2. 負責銷售公司代理之雷射加工,光學量測及其他光電元件相關產品之銷售
+3. 理解客戶需求,與內部應用工程師討論, 提供客戶技術諮詢與解決方案建議
+4.協助規劃與執行市場行銷活動
+5.</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8t0ob</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>數據工程師 - 數據分析人員(IDS)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>宏燁資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>台北市中正區 北平東路30號7樓</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>1. 工作內容數據分析專案資料清理、建模、分析呈現。
+2.依專案內容進行SQL、ETL、BI、Python等技術開發。
+3.與團隊合作共同執行數據相關專案，內容包含資料庫結構分析、資料預處理、數據分析問題假設與原因剖析、多面向資料源數據報表假設證</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ip4q</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>【派遣至知名外商銀行 / 6個月短期專案】Data Engineer資料工程師_年後報到_201HY</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>萬寶華企業管理顧問股份有限公司</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>人力仲介代徵</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>台北市松山區 敦化北路</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>月薪 65,000 ~ 65,000元</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 撰寫專案文件並維持程式碼清晰度
+【資格條件】
+- 大學以上學歷
+- 1年以上資料分析 / 資料工程 / 資料清洗相關經驗
+- 必備中階 SQL技能 (Python為加分項)
+</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xaiq</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>20260126</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>超越數位股份有限公司</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>新竹縣竹北市 自強南路８號11樓之2</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>1.雲端基礎架構規劃、建置及部屬、維護
+2.數據平台規劃、建置及部屬、維護
+3.雲原生平台規劃、建置及部屬、維護
+4.數據整理、清洗、建模及分析</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8si6v</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>(C6) 資深數據工程師Senior Data Engineer（內湖）</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>鴻海精密工業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>消費性電子產品製造業</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市內湖區 </t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>【職位說明】
+參與智慧城市 AI 賦能產品開發，負責建置企業級數據平台(Data as a Service, DaaS)，處理各種形式的資料，並進行完善的資料治理、血緣追蹤與監控。最終將整合生成式 AI（Generative AI）功能，提供智慧</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8p0av</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>20260126</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Garena - (Senior) Data Engineer (資深)資料工程師</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Garena_新加坡商競舞電競有限公司臺灣分公司</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>台北市信義區 松高路11號16樓</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Hi，勇者！我們是 Garena 的 Data Team，我們 Data 夥伴角色組織完善，為 Garena 海內外的遊戲規劃、建構並維護資料量達 PB 級別的全地端資料倉儲，並與數據分析師 (Data Analyst) 合作，將遊戲內各項有趣的</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8rady</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>資料工程師 / 數據服務架構師</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Phison Electronics Corp_群聯電子股份有限公司</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>IC設計相關業</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>苗栗縣竹南鎮 群義路1號</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>算引擎（如 Trino）的維運與優化，透過 Infrastructure as Code (IaC) 與 GitOps 實現數據工程的自動化與標準化。
+【工作內容】
+    容器化平台管理：負責 Kubernetes 叢集的日常維運、資源調度與自動</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ve8x</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>(資深)數據工程師 | (Senior) Data Engineer</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>永聯物流開發股份有限公司</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>其他不動產業</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>台北市內湖區 瑞光路258巷39號2樓</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>8年以上</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Driving Data-Driven Innovation in Logistics
+Job Highlights
+About the Role…
+As a leading company in the transportation logistics industry, ALP is committed to leveraging data and technology to build smarter, more efficient supply chain solutions. With a successful business model that has transformed logistics infrastructure in Taiwan, we are expanding our data capabilities to enhance operations, optimize decision-making, and drive business growth.
+We are hiring a Senior Data Engineer to design, develop, and maintain robust data infrastructure and pipelines that support real-time logistics analytics, AI-driven automation, and business intelligence. This role will play a critical part in optimizing supply chain processes, enhancing warehouse (WMS) and transportation management systems (TMS), and ensuring high-quality data for business operations. As a key member of the data engineering team, you will work closely with data scientists, software engineers, and business leaders to develop high-performance data s</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8mw2p</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>資料工程師 Data Science</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>沛然資訊有限公司</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>台北市內湖區 洲子街150號7樓</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>碩士、博士</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>控與跨市場操作等關鍵場景中。我們開發可用於決策的高互動行動應用，誠摯邀請對產品品質與金融邏輯有熱情的夥伴加入我們的團隊。
+【工作內容】
+1. 台清交成資工系學碩士優先
+2. 優秀IT科技理工且對量化投資有興趣者
+3. 負責開發、建設及管理公司資料</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8qjqu</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>資料工程師 (DW)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>聯合通商電子商務股份有限公司</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>台北市中山區 南京東路二段69號8樓</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>(本職務主要為技術專長的工作)
+1.  資料倉儲系統之程式設計及開發
+2.  負責專案之程式開發與測試及Code review；包含撰寫SQL/SP及使用ETL工具對資料進行處理、建置資料倉儲，並進行UT測試，撰寫驗證報告
+3.   配合專案需求</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/74xkx</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>資料工程師（Python／PySpark）(FAM)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>德義資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市內湖區 </t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+．具 Python 開發經驗 3 年以上
+．熟悉 PySpark 資料處理與運算
+．具資料處理、分析或特徵工程相關經驗佳
+．具良好邏輯思考與問題分析能力
+．能獨立作業並具備跨部門溝通能力</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8y61l</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>大豐有線電視股份有限公司</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>電視業</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>新北市土城區 中華路二段207號</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.集團資料倉儲導入，系統設計、資料超市設計、規格撰寫、程式開發、維運。
+2.ETL流程自動化規劃、設計、開發、撰寫維運、監控。
+3.BI報表規劃、設計、維運。
+4.系統日常維運與問題處理、集團營運報表製作。
+</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8uj1y</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>資深資料工程師Senior Data Development Engineer</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>明門實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>其他運輸工具及零件製造修配業</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>台北市內湖區 瑞光路433號10F</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Why Join Us
+這個角色不只是撰寫報表
+而是實際參與 APS（含 Kinaxis）供應鏈模型資料的建構與整理。
+你所處理的資料，將直接關聯到公司重要的營運規劃與管理決策，
+包含供應鏈計畫、情境模擬與資源配置。
+每一張資料表、每一個資料轉換</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xdmf</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>遠雄房地產-數據/資料工程師</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>遠雄房地產發展股份有限公司</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>不動產經營業</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>台北市信義區 基隆路一段200號8樓</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>1.模型開發-根據專案需求建立預測或分析模型。
+2.資料處理-資料定義及資料預處理，以利開發及後續成果分析。
+3.模型優化-隨著資料的質或量的變動，優化原先預測或分析模型。
+4.資料優化-隨資料蒐集度與市場變化，適時調整資料或資料預處理流程。
+5</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8tony</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>20260202</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>數據科技部-資料工程師 / 數據服務架構師</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>玉山綜合證券股份有限公司</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>台北市中山區 撫順街41巷13號5樓</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 資料倉儲管理與數據中心建置與管理
+2. 負責資料蒐集及處理各項數據、設計資料模型和ETL 流程設計
+3. 設計與開發自動化流程
+4. 進行數據應用與串接之需求訪談
+5. 營運事項之主協辦及其他交辦事項
+</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/889qn</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>遊戲資料庫工程師</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>吉恩立數位科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>台北市信義區 信義路五段106號5樓</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>我們找的就是你：善於溝通、邏輯清晰及執行力的工程師 !
+負責一款遊戲，
+從資料庫初期的建置發佈以及遊戲整體環境建置，到後續服務的長久運行管理。
+在這裡你不會感到孤單，會有同仁一起參與合作與營運，當然，熟悉後也有需要獨自運作的時刻。
+【工作任務</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8tymj</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>20251124</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>資料工程師-情報系統二team【全家便利商店關係企業】</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>精藤股份有限公司</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>台北市中山區 中山北路二段61號11樓</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>專科、大學、碩士</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>護），更有完善的公司治理與開發標準，可做為所有資訊人員執行專案時的後盾。
+除此之外，精藤近年來亦不斷追求更多新領域的發展，例如：雲端科技應用、大數據資料分析以及行動裝置管理技術等等，誠摯的歡迎所有對於零售流通有興趣的伙伴一同加入精藤的大家庭。</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/84xyg</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>久浪智醫股份有限公司</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>生化科技研發業</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>新竹縣竹北市 新竹縣竹北市生醫路2段150號</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 生醫與影像數據統計分析
+2. 數據庫建立與維護
+3. AI/ML 模型建立
+4. 自動化及優化工作及數據流程
+5. 具備AI Agent &amp; MCP protocol專案經驗
+</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8idjr</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>資料工程師 Data Engineer</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>英屬開曼群島商萬里雲互聯股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>台北市信義區 基隆路一段333號33樓</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>【職務說明】
+       我們正在尋找一位具備高度專業技能的資深資料工程師，加入我們快速成長的資料與AI解決方案團隊。此角色將負責設計並交付可擴展的資料平台、建置資料管道，並推動雲端/地端環境下的資料搬遷，以銜接AI分析應用落地。</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8p7ye</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>資料處理工程師／Data Engineer</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>創未來科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>消費性電子產品製造業</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>新竹市 東區公道五路三段1號7樓之8</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>碩士、博士</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>##Job Description
+- 設計和實現資料擷取系統，確保資料擷取的準確性與完整性。
+- 設計和維護資料庫（如PostgreSQL, MongoDB, InfluxDB等），確保資料的安全和高效存取。
+- 開發和維護資料存取API，使用</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8dfpj</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>【數據】資料工程師</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>將來商業銀行股份有限公司</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>銀行業</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>台北市大安區 敦化南路二段95號6樓</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>一、雲端數據架構設計： 負責設計並管理基於公有雲（AWS, GCP 或 Azure）的資料倉儲（Data Warehouse）與數據湖（Data Lake）架構，建立穩健且具擴展性的底層環境。
+二、 ETL 開發： 運用 Python、SQL 或</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8x4v3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>消防監造工程師/副工程師【林口龜山-華亞科技園區】</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>正德防火工業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>空調水機電工程業</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">桃園市龜山區 </t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>專科、大學</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>1.消防設備與系統工程施工規劃及監工品質安全等要求
+2.現場工班管理，業主請款與計價作業
+3.進行督導檢查工地各類場所的消防安全設備
+4.消防設備材料管控，現場施工與竣工資料之彙整
+5.其餘主管交辦事項
+【其他說明】
+※ 非相關科系亦可，如為消</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8bosy</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>VIS250099-【2026研發替代役RDSS】生產線工程師(新竹廠)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>世界先進積體電路股份有限公司</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>半導體製造業</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新竹市 </t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>系統績效考核模式。
+	c.量化分析人員戰力並做最佳配置。
+	d.與外包系統商引進新應用…......等。
+(5)建立檢視報表:
+	a.設計KPI管理執行績效。
+	b.建立報表，追蹤績效。
+	c.資料分析、簡報……等。</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8twlq</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>20260117</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>資深資料工程師</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>艾捷科技有限公司</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>台中市南屯區 大墩十街300號</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>【核心任務】
+Data 團隊是公司數據戰略的核心引擎，肩負著建構企業級數據基礎設施的重要使命。我們打造的數據中台每日處理數億筆交易數據，連接數百個業務數據源，構建高效能的資料管道。通過嚴謹的數據治理，我們不僅確保數據的品質與一致性，更將複雜的數據</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8kwnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>【2026年度研發替代役】資料工程師／資料分析師【數據組】</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>群健科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>台北市中山區 松江路363號12樓</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>碩士、博士</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>★ 工作內容：
+負責 Cofit 資料工程與分析工作，包含資料清洗、轉換與 ETL/ELT 流程維護，整合 App、CRM、醫療等多來源資料，使用 SQL/Python 進行資料處理與分析。協助建立維護儀表板，產出數據報告與趨勢分析，支援行銷、營</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8vxrw</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>20260101</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>【凱基證券/數位創新部】數據工程師</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>凱基證券股份有限公司</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>證券及期貨業</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>台北市中正區 重慶南路一段</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>1. 資料倉儲等系統或機器學習建模之資料收集、開發處理與管理維護
+2. 業務單位數據需求開發</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7jogm</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>20260130</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>聖祐遊戲股份有限公司</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>新北市土城區 三民路2號6樓之5</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>月薪 33,000 ~ 60,000元</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>[基本條件]
+- ETL 流程設計開發與維護經驗
+- 具備 SQL / Python / R 的開發經驗 (具備其中一項即可)
+- 熟悉 AWS 服務相關經驗（例：S3、Gule、SageMaker）
+- 熟悉 Google 的雲端資料解決方案（</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7eby6</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>20260212</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>資料工程師 Data Engineer</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>春樹科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>台北市大同區 南京西路62號9樓</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>能、安全與高可用性有信仰，確保系統不僅「能跑」更能「長跑」。
+-AI 協作夥伴 (MLOps Companion)： 模型落地的推手。與演算法團隊聯手，打造高效的 MLOps 循環。
+我們在意的工程文化
+解決問題： 面對不確定性，能拆解問題並快速</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xjqj</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>20260108</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>資料科學工程師 Machine Learning Engineer  - 人工智慧科技 (數數發中心, DDT)_I00016271</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>國泰金控_國泰金融控股股份有限公司</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>金融控股業</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市信義區 </t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+## 工作內容
+1. 與資料科學家及專案經理緊密合作，共同設計和開發機器學習模型；
+2. 將從資料科學家那裡獲得的原型轉化為可擴展、高效的生產級系統或服務；
+3. 協助進行數據預處理、清理和分析，確保模型的質量和準確性；
+4. 優化現有模型，</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/885y2</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>數位科技處-數據工程師</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>永豐商業銀行股份有限公司</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>銀行業</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>台北市中山區 八德路二段308號</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>1. 設計與規劃ETL(ELT)，整合跨部門之系統分析與報表需求。
+2. 針對營運場景建置批次與資料處理流程，確保資料品質與可用性。
+3. 與業務單位協作，將需求落地為可衡量的數據產品與資料集。
+4. 優化資料模型與SQL查詢效能，提升指標產出效</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/87lum</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>20260205</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SAS資料工程師 (企業架構處)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>全球人壽保險股份有限公司_總公司</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>人身保險業</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>台北市信義區 市民大道6段288號15F</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>1.	數據相關應用系統開發與維運: 帶領小組成員一起完成 
+2.	專案管理: 數據治理,數據服務平台
+3.	一般支援: 數據相關解決方案研發、資安/法遵/行政庶務</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8phhn</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Data Engineer 資料工程師</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Gogoro Taiwan Limited_睿能創意股份有限公司</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>機車及其零件製造業</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>台北市松山區 長安東路二段225號 (或桃園市龜山區頂湖路33號)</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>職務影響力
+本職位以資料工程與分析平台建設為核心，負責打造穩定、可擴展且可維運的工程數據基礎設施，作為工程與研發團隊進行數據決策的關鍵支撐。透過提升資料管道品質、系統自動化與整體擴展性，使資料分析工程師與工程團隊能在一致且可信的數據基礎上，規模化</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wzpl</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20260123</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>資深數據工程師 Senior Data Engineer -集團徵才-數據科技 (數數發中心, DDT)_I00015418</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>國泰金控_國泰金融控股股份有限公司</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>金融控股業</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市信義區 </t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 跟踪新興技術和行業趨勢，並提供相應的技術建議和改進方案。
+[團隊文化]
+- 團隊特色：我們是數據分析團隊，專注在數據創新、商業分析、資料探索。重視團隊橫向溝通，樂於相互學習也樂於分享。
+- 團隊目標：配合數位科技發展目標，開發可落地之新興技術或</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/87vsz</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20251224</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>【前瞻研究籌獲中心】資料工程師(台南)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>國家資通安全研究院</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>其他專業／科學及技術業</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台南市歸仁區 </t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>1. 設計並實作資料處理流程(ETL/ELT)，確保資料的準確性與一致性，支援後續的數據分析與應用
+2. 管理關聯式與非關聯式資料庫系統，進行效能調校與查詢最佳化
+3. 與跨領域團隊合作，提供資料支援並共同設計數據驅動解決方案
+4. 支援開發自動</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8rkm9</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>資深數據工程師 Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>偉康科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>台北市松山區 南京東路五段161號3樓</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>我們是偉康科技智能團隊，專注解決金融領域的智能專家，持續精進並發展監理科技產品。
+團隊成員有智能數據專家、資料科學家、工程師及專案主管，協助客戶解決數據中台、資料湖泊、大數據及資料轉換等議題，支援客戶專案時程完成工作。
+▎工作內容
+1. 在數據</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7fjfp</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>數據工程師</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>澧曜數據有限公司</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>台中市西區 忠明南路497號2樓</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>月薪 40,000元以上</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 開發/維護/設計處理數據架構與服務以及部署服務。
+2. 負責ETL（數據提取、轉換、加載）流程設計，包括數據清洗、預處理及自訂程式開發。
+3. 擁有CI/CD經驗，熟悉Jenkins、GitLab、Airflow等CI/CD工具和流程。
+</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8dclx</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20260120</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>DBA工程師</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>遠鑫網路科技有限公司</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>台北市內湖區 洲子街</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>月薪 70,000 ~ 120,000元</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>。
+3. 設計資料庫備份(xtrabackup)、高可用及災難復原計劃。
+4. 協助開發部門 SQL 語法調優及 index 設計與優化。
+5. Linux 基本操作與 Shell script 撰寫自動運維。
+6. 日常工作、票務和故障排除。
+7</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wrj2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20251124</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>資料工程師(雲端工程師)-AI系統整合team【全家便利商店關係企業】</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>精藤股份有限公司</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>台北市中山區 中山北路二段61號11樓</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>專科、大學、碩士</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>護），更有完善的公司治理與開發標準，可做為所有資訊人員執行專案時的後盾。
+除此之外，精藤近年來亦不斷追求更多新領域的發展，例如：雲端科技應用、大數據資料分析以及行動裝置管理技術等等，誠摯的歡迎所有對於零售流通有興趣的伙伴一同加入精藤的大家庭。</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8p8r6</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>資料工程師 Data Engineer</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>永慶房產集團_永慶房屋仲介股份有限公司</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>不動產經營業</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>台北市大安區 敦化南路二段77號12樓</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>月薪 40,000 ~ 65,000元</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>永慶房產集團為房仲產業龍頭，用科技創新引領創新變革，歡迎IT領域的優秀夥伴加入!
+工作內容如下：
+1.規劃集團資料流程，達成資料整合綜效。
+2.建置企業數據中台，管控集團資料倉儲品質與正確性。
+3.與資料分析師協同合作，進行資料分析前處理，提供</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/78pf4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>資料及數據工程師</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>恒吉佳國際有限公司</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>藝文服務業</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>台北市大安區 信義路四段</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Title :  資料及數據工程師
+公司簡介:
+全職 / 初階至中階職位
+我們是一家快速成長的科技公司，致力於打造區塊鏈領域的尖端解決方案。目前我們專注於基於 Solana 的去中心化應用程式，目標是重塑 DeFi 的未來。</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8odpz</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Data Engineer - Generative AI Pipelines 資料工程師</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>宇泰華科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>台北市南港區 園區街3之1號5樓之2(G棟）</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>***由此連結提交你的履歷: https://jobs.ashbyhq.com/palup*** 
+We’re looking for a Data Engineer —to build scalable data pipelines that power Generative AI applications like RAG, summarization, NER, and FAQ systems. You’ll design systems to scrape, ingest, transform, and enrich data at scale, ensuring it’s clean and optimized for AI/ML workflows.
+What you will do:
+1. Build and optimize ETL/ELT pipelines for large-scale structured &amp; unstructured data
+2. Develop data enrichment workflows (entity extraction, embeddings, metadata tagging)
+3. Manage data lakes, warehouses, and vector databases to support AI retrieval
+4. Collaborate with ML engineers on AI-ready data infrastructure
+5. Ensure pipeline reliability, scalability, and observability
+Who You Are:
+- 5+ years in data engineering (Python, SQL, Spark/Dask/Ray)
+- Experience with web scraping frameworks (Scrapy, Playwright, Selenium)
+- Strong knowledge of cloud platforms (AWS/GCP/Azure) &amp; orchestration tools (Airflow/Prefect/Dagster)
+- Familiarity with GCP storage solutions such as BigQuery, Cloud Storage etc.
+- Familiarity with vector search databases (Pinecone, Weaviate, Elasticsearch)
+- Understanding of NLP concepts relevant to generative AI</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/69or3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>AI Data Engineer(AI數據工程師)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>統一資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>台北市內湖區 石潭路155號8F~10F</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>The AI Center team at President Information CORP. has not only won the IT Matters Innovation Award, but has also published papers in top international journals and obtained numerous domestic and international patents. Our AI platform has successfully expanded into the global market, demonstrating our outstanding technological capabilities.
+1.Data Analyst：
+   ■Utilizing Large Language Models (LLMs) for data processing, including data cleaning, field alignment, classification, and data augmentation.
+   ■Building Retrieval-Augmented Generation (RAG) systems for database processing, integrating vector databases such as FAISS, Qdrant, and Weaviate.
+   ■Implementing vector, semantic, and multimodal search technologies to enhance intelligent information retrieval and data understanding.
+2.Design, Create, and Maintain Kubernetes Clusters for AI Applications：
+   ■Manage container images across multiple GCP environments.
+   ■Ensure efficient deployment and scaling of AI applications,using K8S to deploy container service for AI Application.
+3.Manage Cloud Resources：
+   ■Oversee resources across GCP, AWS, and Azure Open AI.
+   ■Manage Identity and Access Management (IAM) policies and roles.
+   ■Implement and monitor cloud security measures.
+   ■Optimize cloud resource usage and cost.
+   ■Automate infrastructure provisioning and management using tools like Terraform and CloudFormation.
+4.Integrate and Host Notification &amp; Queue Services：
+   ■Utilize services such as Amazon SQS, Google Cloud Pub/Sub, and RabbitMQ.
+5.Design and Manage Vector Databases：
+   ■Work with databases like Milvus,AI Vector DB and Pinecone for LLM vector search and query.  
+6.APM and Tracing Systems Integration and Management：
+   ■Implement and manage Application Performance Monitoring (APM) systems, such as Datadog、Databrick、 and Prometheus, for monitoring a.pplication performance.
+   ■Set up tracing systems like Jaeger and Zipkin to monitor usage and uptime.</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/83004</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20260131</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>資深資料工程師 Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>秀曜匯智股份有限公司</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>數位內容產業</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>台北市南港區 重陽路120號2樓207室</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>5年以上</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>大學</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Job Summary
+We are seeking a highly skilled and experienced Senior Data Engineer to join our growing data team. In this role, you will design, build, and maintain scalable data pipelines and infrastructure that support analytics, machine learning, and business intelligence initiatives. You will work closely with data scientists, analysts, and software engineers to ensure data is accessible, reliable, and secure.
+Key Responsibilities
+￭ Design and implement scalable data pipelines for real-time streaming and batch ETL/ELT processing.
+￭ Architect data storage solutions (data lakes, warehouses) to support diverse analytics and ML needs.
+￭ Develop and optimize real-time data streaming systems and corresponding dashboards.
+￭ Ensure data quality, integrity, security, and governance across systems.
+￭ Plan and execute data collection, storage, and maintenance strategies for varied requirements.
+￭ Collaborate with data scientists, analysts, and stakeholders to deliver business-driven data solutions.
+￭ Mentor junior engineers and promote data engineering best practices.
+￭ Monitor and enhance data infrastructure performance and scalability.
+Qualifications
+￭ 5+ years of data engineering experience.
+￭ Expertise in SQL, Python, and big data tools (e.g., Spark, Kafka).
+￭ Familiar with data representation tools (e.g., Tableau, Looker Studio, Superset).
+￭ Proficiency with cloud platforms (e.g., GCP, AWS, Azure) and data services (e.g., 
+BigQuery, Snowflake).
+￭ Proven experience in real-time streaming systems, dashboard development, and large-scale ETL design.
+￭ Strong knowledge of data modeling, governance, and security practices.
+￭ Bachelor’s degree in Computer Science, Engineering, or related field (Master’s preferred).
+￭ Excellent problem-solving, collaboration, and communication skills.</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ryui</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>VIS250151-【2026研發替代役RDSS】AI應用系統工程師(新竹廠)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>世界先進積體電路股份有限公司</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>半導體製造業</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新竹市 </t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>碩士</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>1. 應用AI技術(如LLM)整合企業系統，提供使用者整體解決方案 
+2. 使用 Power BI 實現視覺化數據分析並發掘商業智慧
+3. 整合內外部資料來源(Python &amp; Database)，進行清理與分析</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wj5j</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20260119</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>品管工程師 【中壢廠/觀音廠】</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>TOYOTA製造商_國瑞汽車股份有限公司</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>汽車及其零件製造業</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>桃園市中壢區 定寧路73號</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>月薪 40,000 ~ 52,000元</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">追蹤改善效果
+3. 運用數據與品質工具，提升產品品質與一致性
+&lt;檢查作業與品質制度推動&gt;
+1.檢討與修訂檢查標準、檢查流程及相關資料
+2.檢查設備與工具，協助提升檢查效率
+3.品質制度與持續改善活動（如 ISO、內部改善專案）
+</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8wmev</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>松凌科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>台北市中正區 衡陽路51號7樓之11</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>月薪 40,000元以上</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>主要工作項目：
+- 協助客戶核心系統轉換並開發資料轉換程式及驗證資料正確性
+- 依客戶報表需求進行分析與開發及驗證報表正確性
+職務要求：
+- 熟悉資料庫之SQL語法指令(PL/SQL或T-SQL)執行資料轉換及驗證資料正確性實務經驗。
+- 熟悉</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/79ccc</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>【擴編】資料工程師 Data Engineer</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>聖文森商瑞德克斯科技有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>台中市西屯區 朝富路213號19樓</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>月薪 40,000 ~ 60,000元</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+※ 工作專業需求：
+1. 具資料視覺化工具（Tableau / PowerBI / Metabase）經驗</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xdrn</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>RD-數據工程師 Data Engineer</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>順立智慧股份有限公司</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>其它軟體及網路相關業</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>台北市內湖區 內湖路一段360巷8號7樓</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>板（命名、開發流程、文件）
+【Must Have】
+－2+ 年資料工程/資料管線相關經驗
+－熟悉 SQL + Python
+－熟悉任一資料倉儲
+－有資料品質/監控/回溯經驗
+－具產品數據概念</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7njt5</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>HUA AO_香港商創金科技有限公司</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>其它軟體及網路相關業</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市大同區 </t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>4年以上</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 熟練掌握 SQL、Python，瞭解數據建模理論
+2. 熟悉數據倉庫工具（如 Snowflake、Redshift、BigQuery、Databricks 等）
+3. 使用 BI 可視化工具（如 Power BI、Tableau、Looker）
+4. 有支付相關業務（如交易數據、支付成本、渠道分潤）分析經驗
+5. 具 ETL 構建經驗，熟悉 Airflow、DBT 等數據編排工具經驗
+</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8pr4c</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20250717</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>資料工程師</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>海易科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>多媒體傳播相關業</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>台北市南港區 三重路19之6號7樓</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>月薪 45,000元以上</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2年以上</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>我們的價值主張： 
+HAI是Human與AI攜手航向行銷大數據海的艦橋，海易掌握行銷大數據海的「關鍵隱藏資訊」，以驗證近萬次的成功演算法，提供最佳整合行銷地圖，邀您一起加入我們的航行！
+Responsibilities:
+•開發及維運資料倉儲系</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7olnj</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20251224</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>【前瞻研究籌獲中心】大數據工程師(台北)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>國家資通安全研究院</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>其他專業／科學及技術業</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市中正區 </t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>1. 設計並維護高效的大數據資料管道(ETL/ELT)，整合多元資料來源，載入資料湖與資料倉儲
+2. 管理Hadoop/Spark等分散式計算架構，最佳化SQL/NoSQL資料庫效能，確保資料一致與可靠
+3. 建構資料模型，規劃儲存策略以提升查詢</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8rkm1</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>程式與ＡＩ協作工程師</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>翔旭國際事業有限公司</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>不動產經營業</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>新北市新莊區 中央路290號(1樓)</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>月薪 60,000 ~ 80,000元</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>圖，而是能真正左右政策思考、讓你的分析被看到、被決策者採用，這裡會是你能發揮影響力的地方。
+職缺名稱：程式與ＡＩ協作工程師
+Python ／資料庫管理（60,000–80,000）
+工作性質：全職
+工作地點
+台北市信義區（近永春捷運站／忠孝東路五段</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ya5u</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>【工程部】部門｜資深大數據工程師 Sr. BigData Engineer / Team Lead(JIRA310)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>全曜財經資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>新北市板橋區 文化路一段266號10樓</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>【BigData Team】
+At CMoney, our mission is to assist people in their lifelong investment. To this end, we have already launched several services and apps to help users make decisions on different matters. CMoney has the most popular stock mobile app and stock forum in Taiwan. So far our stock forum has had more than 450k monthly active users, and all of our products have had almost 3 million monthly active users. Everyday more than 100k articles and messages emerge from our apps and forum. Meanwhile, we collaborate with 50+ investment KOLs to help users succeed in investment. Currently, CMoney is at the fast-growing stage, and thus we are looking for brilliant talents to join our team, especially the ones with integrity, high social interest and a growing mindset. For more detail of CMoney, please refer to the following link: https://cmy.tw/00BWhP.
+Our Big Data team focuses on implementing the business intelligence platform to support multiple internal partner teams to meet their operational needs. We are responsible for establishing processes for continual improvement, crafting data and reporting solutions at large scale. Our mission is to keep our business running optimally while maintaining a balanced application environment.
+As a member of the Big Data team, you will build and own mission-critical data pipelines as well as modern data warehouse solutions while collaborating closely with Data Science, Marketing, and Product teams.
+You will be a part of an early stage team and have a significant stake in defining its future with a considerable potential to impact all of CMoney's revenue and millions of users. Your efforts will reveal invaluable business and user insights to fuel revenue by leveraging vast amounts of data.
+【Must have】
+1. B.S. and/or M.S. in Computer Science or related field.
+2. Broad knowledge of the data infrastructure ecosystem.
+3. Experience with Hadoop or other MapReduce-based architectures.
+4. Good understanding of one or more of the following programming languages on Scala.
+5. Experience with large-scale data warehousing architecture and data modeling.
+6.  Experience with real-time streaming：Apache Kafka, Apache Beam, Heron, Spark 
+Streaming.
+【Plus】
+1. Experience working with large data volumes.
+2. Experience writing Big Data pipelines, as well as custom or structured ETL, 
+implementation and maintenance.
+3. Experience with Druid or Apache Flink.
+4. Ability in managing and communicating data warehouse project plans to internal 
+clients.</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7dl67</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20260128</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>資料分析工程師 (PS2A0)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>資拓宏宇國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市大安區 </t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>專科、大學、碩士</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>1.熟悉使用Tableau設計報表與儀表板,至少具備1年以上經驗。
+2.熟悉撰寫SQL進行資料前處理,至少具備1年以上經驗。</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8s7c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>量化投資金融大數據工程師</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>沛然資訊有限公司</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>台北市內湖區 洲子街150號7樓</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>年薪 900,000 ~ 1,700,000元</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>控與跨市場操作等關鍵場景中。我們開發可用於決策的高互動行動應用，誠摯邀請對產品品質與金融邏輯有熱情的夥伴加入我們的團隊。
+【工作內容】
+1. 台清交成資工系學碩士優先。
+2. 優秀IT科技理工且對量化投資有興趣者。
+3. 量化交易相關資料庫的維運</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7mnu3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>【國泰集團】資料科學工程師 (數據應用工程師) – (數數發中心, DDT)_I00020717</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>國泰世紀產物保險股份有限公司</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>產物保險業</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市大安區 </t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>月薪 44,000元以上</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+* 目標成果導向：重視成果並具合作互助精神
+* 積極主動、持續進步：樂於學習與自我成長
+* 熱愛數據、對技術充滿熱忱：積極探索與應用新技術
+【工作內容】
+資料工程的世界千變萬化，以下是你的任務指南：
+1. 數據蒐集與處理，接觸各種資料來源，進行</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8n8v0</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>20260123</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>資料科學工程師 （Data Science R&amp;D）- 數據產品前端開發 - 資料科學研發 (數數發中心, DDT)_I00015960</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>國泰金控_國泰金融控股股份有限公司</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>金融控股業</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">台北市信義區 </t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+跟 UX 設計師合作，善用 Vue Framework，開發及維護 Web UI 元件
+基於 K8s 及 container 技術，開發及維護資料科學產品之前後端（Flask）串接
+參與資料科學研究與專案開發
+數據平台及數據工程相關產品開發（設</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/87v08</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SWRD_Data Engineer 資料工程師</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Gogoro Taiwan Limited_睿能創意股份有限公司</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>機車及其零件製造業</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>台北市松山區 長安東路二段225號</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Position Impact：
+The Data Engineer is responsible for designing, building, and maintaining data solutions that ensure data is accessible, reliable, and scalable across the company. This role involves working with large-scale databases, identifying hidden risks, and developing solutions that enhance data performance and quality. You will collaborate closely with backend engineers, other data engineers, and product managers to deliver data solutions that align with business objectives.
+Responsibilities：
+• Design database structures, schema, and a management database to support high-performance data analytics.
+• Build dashboard and report interfaces that increase data accessibility to deliver actionable insights to stakeholders to find solutions.
+• Build up the prediction model to identify and monitor key performance metrics.
+• Build data tools that boost team working efficiency. 
+Requirement：
+• Bachelor's degree in Computer Science, Information Management, Statistics or related fields.
+• 3+ years relevant experience in data engineering or backend development.
+• Proficiency in Python or Java for building scalable data pipelines or backend services.
+• Strong knowledge of SQL (query optimization, indexing) and database design principles.
+• Good communication skills and ability to work cross-functionally with technical and non-technical teams.
+• Strong analytical and problem-solving skills paired with the ability to develop creative and efficient solutions.
+Advanced Qualifications
+• Experiences with Tableau, Starrocks, Flink CDC, or Hadoop will be a plus.</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ti6d</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Data Engineer 數據工程師(錦州街) (可年後報到)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>山富國際旅行社股份有限公司</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>旅遊服務業</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>台北市中山區 錦州街46號10樓</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>月薪 48,000元以上</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">與效能調校。
+與後端工程師協作，確保數據收集與儲存的效率與規範。
+探索並導入新興的數據技術與工具，持續提升團隊的數據處理能力。
+</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/73ifb</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20260202</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>數據工程師｜AI產業｜新創｜Python｜歡迎新鮮人與資深開發者</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>睿思智慧股份有限公司</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>新北市板橋區 中山路2段443巷77號10樓</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>月薪 45,000 ~ 120,000元</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>3年以上</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>大學以上</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>最佳夥伴。未來也將持續擴展Neuro家族，讓AI應用更親民、更普及。
+如果你喜歡學習、願意動手做事，歡迎加入我們，一起努力成長，創造更多可能！
+【主要任務】
+1. 與資料科學家、雲端架構師、資料分析師及專案經理密切合作，提供高品質的雲端數據服務給</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8xq4h</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>ETL資料工程師</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>緯德科技股份有限公司 (TechLink Corporation)</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>台北市松山區 敦化北路207號8F-13</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>- 熟悉資料庫之SQL語法執行ETL資料轉換作業(ETL Job Developing、IBM DataStage、Informatica PowerCenter、Microsoft SSIS、Trinity)實務經驗1年以上。
+- 熟悉資料庫安</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/5e9ei</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>20260211</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>資料工程師(資訊部)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>三立電視台_三立電視股份有限公司</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>電視業</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>台北市內湖區 舊宗路一段159號1樓(114)</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>專科、大學、碩士</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>三立電視，為三立集團旗下媒體公司是台灣大型有線電視全媒體頻道。集團下還有多個事業體，跨足電商平台。我們希望應用AI的技術，在海量的訊息中找尋有價值的資料，提高用戶的體驗及便捷度
+工作內容：
+1.熟悉linux系統,略懂AWS架構以及實際操作經驗</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/6dcfl</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>BI 數據工程師  (Data Engineer)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>神來也麻將_慧邦科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>網際網路相關業</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>台北市中正區 羅斯福路二段100號10樓</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>1. 建置與維運遊戲數據 ETL / ELT 排程。
+2. 與分析、PM、營運合作，提供即時數據查找並建置固定排程或後台功能。
+3. 進行資料品質檢查、異常偵測與基礎探索分析。
+4. 開發與維護數據後台、API 與資料平台相關功能。
+【專業條</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/6u7bu</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>20260209</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>ETL資料工程師</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>欣創科技有限公司</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>電腦軟體服務業</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>台北市松山區 敦化北路207號9樓之4</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>1. 熟悉執行ETL資料轉換作業(Informatica PowerCenter、IBM DataStage、Microsoft SSIS、Trinity等ETL工具)
+2. 資料庫安裝、設定及操作實務經驗
+3. 具備STORE</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/80lq4</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>20260210</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>數據工程師 - RPA流程自動化人員(IDS)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>宏燁資訊股份有限公司</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>電腦系統整合服務業</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>台北市中正區 北平東路30號7樓</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>專科、大學、碩士</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>1. RPA軟體流程自動化(UiPath / Automation Anywhere)需求訪談、流程規劃、流程開發與維護。
+2. 設定軟體自動化流程、伺服器平台運用、流程開發。
+3. 個性主動積極，具程式開發相關經驗佳。  
+4. 有良好的溝通與表達能力，具團隊合作精神。
+5. 具有RPA經驗者佳。
+6. 依個人經驗與期望安排對應專案職務(駐點客戶端等)。
+7. 無RPA經驗可，歡迎想要學習與實作RPA機器人的夥伴加入。</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/874x5</t>
         </is>
       </c>
     </row>
